--- a/Data/aearep-468/candidatepackages.xlsx
+++ b/Data/aearep-468/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,9 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
@@ -52,24 +49,21 @@
     <t>regsave</t>
   </si>
   <si>
+    <t>tabstatmat</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>tabstatmat</t>
-  </si>
-  <si>
     <t>listtex</t>
   </si>
   <si>
+    <t>sq</t>
+  </si>
+  <si>
     <t>project</t>
   </si>
   <si>
-    <t>sq</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
@@ -82,24 +76,24 @@
     <t>levels</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>running</t>
   </si>
   <si>
     <t>median</t>
   </si>
   <si>
+    <t>forest</t>
+  </si>
+  <si>
     <t>reformat</t>
   </si>
   <si>
-    <t>forest</t>
-  </si>
-  <si>
     <t>combine</t>
   </si>
   <si>
@@ -109,28 +103,22 @@
     <t>effects</t>
   </si>
   <si>
+    <t>ascii</t>
+  </si>
+  <si>
     <t>mc</t>
   </si>
   <si>
     <t>adjust</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>ascii</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>unemp</t>
   </si>
   <si>
     <t>gets</t>
   </si>
   <si>
-    <t>unemp</t>
+    <t>subset</t>
   </si>
   <si>
     <t>usd</t>
@@ -139,15 +127,12 @@
     <t>stack</t>
   </si>
   <si>
+    <t>vlist</t>
+  </si>
+  <si>
     <t>dash</t>
   </si>
   <si>
-    <t>subset</t>
-  </si>
-  <si>
-    <t>vlist</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-468</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-468/replication_external/do</t>
   </si>
   <si>
@@ -182,18 +164,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>make-app.do</t>
@@ -300,7 +270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D39"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -308,13 +278,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -334,7 +304,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -346,7 +316,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -358,7 +328,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -370,7 +340,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -382,7 +352,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -394,7 +364,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -406,7 +376,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -418,7 +388,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -430,7 +400,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -442,7 +412,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -454,7 +424,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -466,10 +436,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>279</v>
+        <v>421</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.13917355239391327</v>
       </c>
       <c r="D14"/>
     </row>
@@ -478,10 +448,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>286</v>
+        <v>525</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D15"/>
     </row>
@@ -490,10 +460,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>406</v>
+        <v>547</v>
       </c>
       <c r="C16">
-        <v>0.13461539149284363</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D16"/>
     </row>
@@ -502,10 +472,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="C17">
-        <v>0.16677719354629517</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D17"/>
     </row>
@@ -514,10 +484,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="C18">
-        <v>0.18667109310626984</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D18"/>
     </row>
@@ -526,10 +496,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>566</v>
+        <v>657</v>
       </c>
       <c r="C19">
-        <v>0.18766577541828156</v>
+        <v>0.21719008684158325</v>
       </c>
       <c r="D19"/>
     </row>
@@ -538,10 +508,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>606</v>
+        <v>706</v>
       </c>
       <c r="C20">
-        <v>0.20092837512493134</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D20"/>
     </row>
@@ -550,10 +520,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>679</v>
+        <v>712</v>
       </c>
       <c r="C21">
-        <v>0.22513262927532196</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D21"/>
     </row>
@@ -562,10 +532,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>694</v>
+        <v>746</v>
       </c>
       <c r="C22">
-        <v>0.23010610044002533</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D22"/>
     </row>
@@ -574,10 +544,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>698</v>
+        <v>884</v>
       </c>
       <c r="C23">
-        <v>0.23143236339092255</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D23"/>
     </row>
@@ -586,10 +556,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>745</v>
+        <v>955</v>
       </c>
       <c r="C24">
-        <v>0.24701590836048126</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D24"/>
     </row>
@@ -598,10 +568,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>797</v>
+        <v>1226</v>
       </c>
       <c r="C25">
-        <v>0.2642572820186615</v>
+        <v>0.40528926253318787</v>
       </c>
       <c r="D25"/>
     </row>
@@ -610,10 +580,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1133</v>
+        <v>1303</v>
       </c>
       <c r="C26">
-        <v>0.37566313147544861</v>
+        <v>0.43074381351470947</v>
       </c>
       <c r="D26"/>
     </row>
@@ -622,10 +592,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1289</v>
+        <v>1414</v>
       </c>
       <c r="C27">
-        <v>0.42738726735115051</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D27"/>
     </row>
@@ -634,10 +604,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1375</v>
+        <v>1428</v>
       </c>
       <c r="C28">
-        <v>0.4559018611907959</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D28"/>
     </row>
@@ -646,10 +616,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1423</v>
+        <v>1497</v>
       </c>
       <c r="C29">
-        <v>0.47181698679924011</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D29"/>
     </row>
@@ -658,10 +628,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1553</v>
+        <v>1729</v>
       </c>
       <c r="C30">
-        <v>0.51492041349411011</v>
+        <v>0.57157027721405029</v>
       </c>
       <c r="D30"/>
     </row>
@@ -670,10 +640,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1660</v>
+        <v>1767</v>
       </c>
       <c r="C31">
-        <v>0.55039787292480469</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D31"/>
     </row>
@@ -682,10 +652,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1755</v>
+        <v>1796</v>
       </c>
       <c r="C32">
-        <v>0.58189654350280762</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D32"/>
     </row>
@@ -694,10 +664,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1793</v>
+        <v>1838</v>
       </c>
       <c r="C33">
-        <v>0.59449601173400879</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D33"/>
     </row>
@@ -706,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1798</v>
+        <v>1865</v>
       </c>
       <c r="C34">
-        <v>0.5961538553237915</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D34"/>
     </row>
@@ -718,10 +688,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1810</v>
+        <v>1974</v>
       </c>
       <c r="C35">
-        <v>0.60013264417648315</v>
+        <v>0.65256196260452271</v>
       </c>
       <c r="D35"/>
     </row>
@@ -730,10 +700,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1817</v>
+        <v>2008</v>
       </c>
       <c r="C36">
-        <v>0.60245358943939209</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D36"/>
     </row>
@@ -742,10 +712,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1859</v>
+        <v>2226</v>
       </c>
       <c r="C37">
-        <v>0.61637932062149048</v>
+        <v>0.73586779832839966</v>
       </c>
       <c r="D37"/>
     </row>
@@ -754,10 +724,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1965</v>
+        <v>2283</v>
       </c>
       <c r="C38">
-        <v>0.65152519941329956</v>
+        <v>0.75471073389053345</v>
       </c>
       <c r="D38"/>
     </row>
@@ -766,72 +736,12 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2000</v>
+        <v>2436</v>
       </c>
       <c r="C39">
-        <v>0.66312998533248901</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D39"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2217</v>
-      </c>
-      <c r="C40">
-        <v>0.73507958650588989</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>2330</v>
-      </c>
-      <c r="C41">
-        <v>0.77254641056060791</v>
-      </c>
-      <c r="D41"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>2424</v>
-      </c>
-      <c r="C42">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D42"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>2511</v>
-      </c>
-      <c r="C43">
-        <v>0.83255970478057861</v>
-      </c>
-      <c r="D43"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>2679</v>
-      </c>
-      <c r="C44">
-        <v>0.88826256990432739</v>
-      </c>
-      <c r="D44"/>
     </row>
   </sheetData>
 </worksheet>
@@ -839,215 +749,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B22"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
